--- a/BackTest/2020-01-19 BackTest BTG.xlsx
+++ b/BackTest/2020-01-19 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11374,7 +11374,7 @@
         <v>5375.292301170004</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>4531.740291350004</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>2624.293113030004</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>2624.203742410004</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>2394.135942410004</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>2481.541742410004</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>2363.500453800004</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>1215.791068750004</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>1889.635568750004</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>1546.726368750004</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>2298.420868750005</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>2053.349184760004</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>2134.538584760005</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>10098.18590399001</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>26422.05527887001</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>22648.13513498001</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>22198.09164366001</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>20244.80924065001</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>20543.75170537001</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>20170.49560537001</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>21678.23780537001</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>21317.46640537001</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>20874.57860537001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>20222.06710537001</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>19349.56530537001</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>19313.93090537001</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>19130.76310537001</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>19409.36377403001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>19286.55143412001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>18704.76143412001</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>19095.58273412001</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>19718.55462680001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>19717.47562680001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>19715.7952268</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>19715.67332680001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>19742.83332680001</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>18510.98852680001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>18701.86822680001</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>18670.23822680001</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>18316.05642680001</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>17374.76052680001</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>17132.44052680001</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>17538.27712680001</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>17130.72692680001</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>16401.07112680001</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>16050.91262680001</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>16658.95772680001</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>16720.67882680001</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>16709.69882680001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>16643.88742680001</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>16534.83932680001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>16297.03312680001</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>16210.21082680001</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>17149.79612680001</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>17251.34962680001</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>17039.09132680001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>17017.33072680001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>16503.16222680001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>20842.44322561002</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>20956.83382561001</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>20956.83382561001</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>21226.20162561001</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>21095.54932561001</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>20936.20822561001</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>20891.65822561001</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>20747.80842561001</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>20533.10962561001</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>20277.95772561001</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>20176.12372561001</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>20235.24392561002</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>20217.76972561001</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>20161.27092561001</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>20147.92912561002</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>20529.17172135002</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>18027.74732135002</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21802,17 +21802,11 @@
         <v>-3116.422967909984</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>13490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21841,17 +21835,11 @@
         <v>-2685.978967909984</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>13500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21880,17 +21868,11 @@
         <v>-3434.121567909984</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>13550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21919,17 +21901,11 @@
         <v>-3130.915367909984</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>13480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21958,17 +21934,11 @@
         <v>-3746.820067909984</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>13530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21997,17 +21967,11 @@
         <v>-3548.499467909984</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>13500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22036,17 +22000,11 @@
         <v>-3801.425967909984</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>13700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22079,11 +22037,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22116,11 +22070,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22153,11 +22103,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22190,11 +22136,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22227,11 +22169,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +22202,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22297,17 +22231,11 @@
         <v>-2883.072367909984</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>13620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22336,17 +22264,11 @@
         <v>-2548.678967909984</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>13640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22379,11 +22301,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22416,11 +22334,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22453,11 +22367,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22490,11 +22400,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22527,11 +22433,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22564,11 +22466,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22601,11 +22499,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22634,17 +22528,11 @@
         <v>-1304.778067909984</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>13790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22673,17 +22561,11 @@
         <v>-771.2799701499838</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>13790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22712,17 +22594,11 @@
         <v>-1225.605470149984</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>13850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22755,11 +22631,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22788,17 +22660,11 @@
         <v>-1424.147570149984</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>13780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22831,11 +22697,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22868,11 +22730,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22905,11 +22763,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22942,11 +22796,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22979,11 +22829,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23016,11 +22862,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23053,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23090,11 +22928,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23127,11 +22961,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23164,11 +22994,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23201,11 +23027,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23238,11 +23060,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23275,11 +23093,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23312,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23349,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23192,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23423,11 +23225,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23460,11 +23258,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23497,11 +23291,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23534,11 +23324,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23571,11 +23357,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23604,17 +23386,11 @@
         <v>227.8877949600162</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>13880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23643,17 +23419,11 @@
         <v>219.8877949600162</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>13870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23682,17 +23452,11 @@
         <v>162.6590949600162</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23725,11 +23489,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23758,17 +23518,11 @@
         <v>180.9209949600162</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
-      </c>
-      <c r="I701" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23801,11 +23555,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23838,11 +23588,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23875,11 +23621,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23912,11 +23654,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23949,11 +23687,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23982,17 +23716,11 @@
         <v>289.8340949600162</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
-      </c>
-      <c r="I707" t="n">
-        <v>13810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24025,11 +23753,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24062,11 +23786,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24095,17 +23815,11 @@
         <v>608.6016949600162</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
-      </c>
-      <c r="I710" t="n">
-        <v>13870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24134,17 +23848,11 @@
         <v>608.6016949600162</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
-      </c>
-      <c r="I711" t="n">
-        <v>13880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24177,11 +23885,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24214,11 +23918,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24251,11 +23951,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24288,11 +23984,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24325,11 +24017,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24362,11 +24050,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24399,11 +24083,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24436,11 +24116,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24473,11 +24149,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24510,11 +24182,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24547,11 +24215,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24584,11 +24248,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24621,11 +24281,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24658,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24695,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24732,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24769,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24806,11 +24446,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24843,11 +24479,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24880,11 +24512,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24917,11 +24545,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24954,11 +24578,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24991,11 +24611,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25028,11 +24644,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25065,11 +24677,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +24710,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25135,16 +24739,14 @@
         <v>1668.402617100016</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
       <c r="M738" t="inlineStr"/>
     </row>
     <row r="739">
@@ -29394,14 +28996,10 @@
         <v>-2990.769076899984</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
-      </c>
-      <c r="I867" t="n">
-        <v>13880</v>
-      </c>
-      <c r="J867" t="n">
-        <v>13880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
@@ -29431,19 +29029,11 @@
         <v>-2988.976962209984</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
-      </c>
-      <c r="I868" t="n">
-        <v>13920</v>
-      </c>
-      <c r="J868" t="n">
-        <v>13880</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29472,19 +29062,11 @@
         <v>-3053.379062209984</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
-      </c>
-      <c r="I869" t="n">
-        <v>13950</v>
-      </c>
-      <c r="J869" t="n">
-        <v>13880</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31790,446 +31372,380 @@
         <v>-4057.454127839985</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
-      </c>
-      <c r="I939" t="n">
-        <v>13830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="n">
+        <v>1</v>
+      </c>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="n">
+        <v>13740</v>
+      </c>
+      <c r="C940" t="n">
+        <v>13720</v>
+      </c>
+      <c r="D940" t="n">
+        <v>13740</v>
+      </c>
+      <c r="E940" t="n">
+        <v>13720</v>
+      </c>
+      <c r="F940" t="n">
+        <v>264.57</v>
+      </c>
+      <c r="G940" t="n">
+        <v>-4322.024127839985</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="n">
+        <v>1</v>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="n">
+        <v>13720</v>
+      </c>
+      <c r="C941" t="n">
+        <v>13730</v>
+      </c>
+      <c r="D941" t="n">
+        <v>13950</v>
+      </c>
+      <c r="E941" t="n">
+        <v>13710</v>
+      </c>
+      <c r="F941" t="n">
+        <v>364.7111</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-3957.313027839985</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="n">
+        <v>13710</v>
+      </c>
+      <c r="C942" t="n">
+        <v>13710</v>
+      </c>
+      <c r="D942" t="n">
+        <v>13720</v>
+      </c>
+      <c r="E942" t="n">
+        <v>13620</v>
+      </c>
+      <c r="F942" t="n">
+        <v>1062.9183</v>
+      </c>
+      <c r="G942" t="n">
+        <v>-5020.231327839985</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="n">
+        <v>1</v>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="n">
+        <v>13620</v>
+      </c>
+      <c r="C943" t="n">
+        <v>13620</v>
+      </c>
+      <c r="D943" t="n">
+        <v>13620</v>
+      </c>
+      <c r="E943" t="n">
+        <v>13620</v>
+      </c>
+      <c r="F943" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-5028.881327839985</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="n">
+        <v>1</v>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="n">
+        <v>13620</v>
+      </c>
+      <c r="C944" t="n">
+        <v>13600</v>
+      </c>
+      <c r="D944" t="n">
+        <v>13620</v>
+      </c>
+      <c r="E944" t="n">
+        <v>13600</v>
+      </c>
+      <c r="F944" t="n">
+        <v>160.0241</v>
+      </c>
+      <c r="G944" t="n">
+        <v>-5188.905427839984</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="n">
+        <v>1</v>
+      </c>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="n">
+        <v>13600</v>
+      </c>
+      <c r="C945" t="n">
+        <v>13560</v>
+      </c>
+      <c r="D945" t="n">
+        <v>13600</v>
+      </c>
+      <c r="E945" t="n">
+        <v>13540</v>
+      </c>
+      <c r="F945" t="n">
+        <v>326.5667</v>
+      </c>
+      <c r="G945" t="n">
+        <v>-5515.472127839985</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
+      <c r="L945" t="n">
+        <v>1</v>
+      </c>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="n">
+        <v>13540</v>
+      </c>
+      <c r="C946" t="n">
+        <v>13330</v>
+      </c>
+      <c r="D946" t="n">
+        <v>13540</v>
+      </c>
+      <c r="E946" t="n">
+        <v>13330</v>
+      </c>
+      <c r="F946" t="n">
+        <v>2052.5123</v>
+      </c>
+      <c r="G946" t="n">
+        <v>-7567.984427839985</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="n">
+        <v>1</v>
+      </c>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="n">
+        <v>13340</v>
+      </c>
+      <c r="C947" t="n">
+        <v>13400</v>
+      </c>
+      <c r="D947" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E947" t="n">
+        <v>13330</v>
+      </c>
+      <c r="F947" t="n">
+        <v>429.8522</v>
+      </c>
+      <c r="G947" t="n">
+        <v>-7138.132227839985</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="n">
+        <v>1</v>
+      </c>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="n">
+        <v>13400</v>
+      </c>
+      <c r="C948" t="n">
+        <v>13380</v>
+      </c>
+      <c r="D948" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E948" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F948" t="n">
+        <v>116.58540777</v>
+      </c>
+      <c r="G948" t="n">
+        <v>-7254.717635609984</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
+      <c r="L948" t="n">
+        <v>1</v>
+      </c>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="n">
+        <v>13350</v>
+      </c>
+      <c r="C949" t="n">
+        <v>13340</v>
+      </c>
+      <c r="D949" t="n">
+        <v>13360</v>
+      </c>
+      <c r="E949" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F949" t="n">
+        <v>815.0316</v>
+      </c>
+      <c r="G949" t="n">
+        <v>-8069.749235609985</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="n">
+        <v>1</v>
+      </c>
+      <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="n">
+        <v>13340</v>
+      </c>
+      <c r="C950" t="n">
+        <v>13350</v>
+      </c>
+      <c r="D950" t="n">
+        <v>13350</v>
+      </c>
+      <c r="E950" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F950" t="n">
+        <v>2429.6863</v>
+      </c>
+      <c r="G950" t="n">
+        <v>-5640.062935609985</v>
+      </c>
+      <c r="H950" t="n">
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>13340</v>
+      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L939" t="n">
-        <v>1</v>
-      </c>
-      <c r="M939" t="inlineStr"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>13740</v>
-      </c>
-      <c r="C940" t="n">
-        <v>13720</v>
-      </c>
-      <c r="D940" t="n">
-        <v>13740</v>
-      </c>
-      <c r="E940" t="n">
-        <v>13720</v>
-      </c>
-      <c r="F940" t="n">
-        <v>264.57</v>
-      </c>
-      <c r="G940" t="n">
-        <v>-4322.024127839985</v>
-      </c>
-      <c r="H940" t="n">
-        <v>2</v>
-      </c>
-      <c r="I940" t="n">
-        <v>13740</v>
-      </c>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L940" t="n">
-        <v>1</v>
-      </c>
-      <c r="M940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>13720</v>
-      </c>
-      <c r="C941" t="n">
-        <v>13730</v>
-      </c>
-      <c r="D941" t="n">
-        <v>13950</v>
-      </c>
-      <c r="E941" t="n">
-        <v>13710</v>
-      </c>
-      <c r="F941" t="n">
-        <v>364.7111</v>
-      </c>
-      <c r="G941" t="n">
-        <v>-3957.313027839985</v>
-      </c>
-      <c r="H941" t="n">
-        <v>2</v>
-      </c>
-      <c r="I941" t="n">
-        <v>13720</v>
-      </c>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
-      <c r="M941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>13710</v>
-      </c>
-      <c r="C942" t="n">
-        <v>13710</v>
-      </c>
-      <c r="D942" t="n">
-        <v>13720</v>
-      </c>
-      <c r="E942" t="n">
-        <v>13620</v>
-      </c>
-      <c r="F942" t="n">
-        <v>1062.9183</v>
-      </c>
-      <c r="G942" t="n">
-        <v>-5020.231327839985</v>
-      </c>
-      <c r="H942" t="n">
-        <v>2</v>
-      </c>
-      <c r="I942" t="n">
-        <v>13730</v>
-      </c>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L942" t="n">
-        <v>1</v>
-      </c>
-      <c r="M942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>13620</v>
-      </c>
-      <c r="C943" t="n">
-        <v>13620</v>
-      </c>
-      <c r="D943" t="n">
-        <v>13620</v>
-      </c>
-      <c r="E943" t="n">
-        <v>13620</v>
-      </c>
-      <c r="F943" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="G943" t="n">
-        <v>-5028.881327839985</v>
-      </c>
-      <c r="H943" t="n">
-        <v>2</v>
-      </c>
-      <c r="I943" t="n">
-        <v>13710</v>
-      </c>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L943" t="n">
-        <v>1</v>
-      </c>
-      <c r="M943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>13620</v>
-      </c>
-      <c r="C944" t="n">
-        <v>13600</v>
-      </c>
-      <c r="D944" t="n">
-        <v>13620</v>
-      </c>
-      <c r="E944" t="n">
-        <v>13600</v>
-      </c>
-      <c r="F944" t="n">
-        <v>160.0241</v>
-      </c>
-      <c r="G944" t="n">
-        <v>-5188.905427839984</v>
-      </c>
-      <c r="H944" t="n">
-        <v>2</v>
-      </c>
-      <c r="I944" t="n">
-        <v>13620</v>
-      </c>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L944" t="n">
-        <v>1</v>
-      </c>
-      <c r="M944" t="inlineStr"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>13600</v>
-      </c>
-      <c r="C945" t="n">
-        <v>13560</v>
-      </c>
-      <c r="D945" t="n">
-        <v>13600</v>
-      </c>
-      <c r="E945" t="n">
-        <v>13540</v>
-      </c>
-      <c r="F945" t="n">
-        <v>326.5667</v>
-      </c>
-      <c r="G945" t="n">
-        <v>-5515.472127839985</v>
-      </c>
-      <c r="H945" t="n">
-        <v>2</v>
-      </c>
-      <c r="I945" t="n">
-        <v>13600</v>
-      </c>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L945" t="n">
-        <v>1</v>
-      </c>
-      <c r="M945" t="inlineStr"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-      <c r="B946" t="n">
-        <v>13540</v>
-      </c>
-      <c r="C946" t="n">
-        <v>13330</v>
-      </c>
-      <c r="D946" t="n">
-        <v>13540</v>
-      </c>
-      <c r="E946" t="n">
-        <v>13330</v>
-      </c>
-      <c r="F946" t="n">
-        <v>2052.5123</v>
-      </c>
-      <c r="G946" t="n">
-        <v>-7567.984427839985</v>
-      </c>
-      <c r="H946" t="n">
-        <v>2</v>
-      </c>
-      <c r="I946" t="n">
-        <v>13560</v>
-      </c>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L946" t="n">
-        <v>1</v>
-      </c>
-      <c r="M946" t="inlineStr"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-      <c r="B947" t="n">
-        <v>13340</v>
-      </c>
-      <c r="C947" t="n">
-        <v>13400</v>
-      </c>
-      <c r="D947" t="n">
-        <v>13400</v>
-      </c>
-      <c r="E947" t="n">
-        <v>13330</v>
-      </c>
-      <c r="F947" t="n">
-        <v>429.8522</v>
-      </c>
-      <c r="G947" t="n">
-        <v>-7138.132227839985</v>
-      </c>
-      <c r="H947" t="n">
-        <v>2</v>
-      </c>
-      <c r="I947" t="n">
-        <v>13330</v>
-      </c>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L947" t="n">
-        <v>1</v>
-      </c>
-      <c r="M947" t="inlineStr"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>13400</v>
-      </c>
-      <c r="C948" t="n">
-        <v>13380</v>
-      </c>
-      <c r="D948" t="n">
-        <v>13400</v>
-      </c>
-      <c r="E948" t="n">
-        <v>13340</v>
-      </c>
-      <c r="F948" t="n">
-        <v>116.58540777</v>
-      </c>
-      <c r="G948" t="n">
-        <v>-7254.717635609984</v>
-      </c>
-      <c r="H948" t="n">
-        <v>2</v>
-      </c>
-      <c r="I948" t="n">
-        <v>13400</v>
-      </c>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L948" t="n">
-        <v>1</v>
-      </c>
-      <c r="M948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>13350</v>
-      </c>
-      <c r="C949" t="n">
-        <v>13340</v>
-      </c>
-      <c r="D949" t="n">
-        <v>13360</v>
-      </c>
-      <c r="E949" t="n">
-        <v>13340</v>
-      </c>
-      <c r="F949" t="n">
-        <v>815.0316</v>
-      </c>
-      <c r="G949" t="n">
-        <v>-8069.749235609985</v>
-      </c>
-      <c r="H949" t="n">
-        <v>2</v>
-      </c>
-      <c r="I949" t="n">
-        <v>13380</v>
-      </c>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L949" t="n">
-        <v>1</v>
-      </c>
-      <c r="M949" t="inlineStr"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-      <c r="B950" t="n">
-        <v>13340</v>
-      </c>
-      <c r="C950" t="n">
-        <v>13350</v>
-      </c>
-      <c r="D950" t="n">
-        <v>13350</v>
-      </c>
-      <c r="E950" t="n">
-        <v>13340</v>
-      </c>
-      <c r="F950" t="n">
-        <v>2429.6863</v>
-      </c>
-      <c r="G950" t="n">
-        <v>-5640.062935609985</v>
-      </c>
-      <c r="H950" t="n">
-        <v>2</v>
-      </c>
-      <c r="I950" t="n">
-        <v>13340</v>
-      </c>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32258,7 +31774,7 @@
         <v>-5537.402735609985</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I951" t="n">
         <v>13350</v>
@@ -32297,7 +31813,7 @@
         <v>-5317.607335609985</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>13360</v>
@@ -32336,7 +31852,7 @@
         <v>-4889.578935609985</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>13430</v>
@@ -32375,7 +31891,7 @@
         <v>-5305.653535609985</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954" t="n">
         <v>13500</v>
@@ -32414,7 +31930,7 @@
         <v>-5124.858835609984</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I955" t="n">
         <v>13430</v>
@@ -32453,7 +31969,7 @@
         <v>-4183.050135609985</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I956" t="n">
         <v>13550</v>
@@ -32492,7 +32008,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>13580</v>
@@ -32531,7 +32047,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>13600</v>
@@ -32570,7 +32086,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>13600</v>
@@ -32609,11 +32125,9 @@
         <v>-3198.908835609985</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
-      </c>
-      <c r="I960" t="n">
-        <v>13600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -32648,7 +32162,7 @@
         <v>-3274.390135609985</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>13610</v>
@@ -32687,11 +32201,9 @@
         <v>-3234.597135609984</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
-      </c>
-      <c r="I962" t="n">
-        <v>13600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -32726,11 +32238,9 @@
         <v>-2934.076535609985</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
-      </c>
-      <c r="I963" t="n">
-        <v>13610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -32765,11 +32275,9 @@
         <v>-2898.423835609985</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
-      </c>
-      <c r="I964" t="n">
-        <v>13690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -32804,11 +32312,9 @@
         <v>-2593.054735609985</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
-      </c>
-      <c r="I965" t="n">
-        <v>13750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -34286,11 +33792,9 @@
         <v>-5370.093091809984</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>13600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34362,11 +33866,9 @@
         <v>-5278.229191809984</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>13500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34512,11 +34014,9 @@
         <v>-4986.542491809984</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>13520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34551,11 +34051,9 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>13520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34590,11 +34088,9 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>13610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34629,11 +34125,9 @@
         <v>-4385.831991809984</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>13610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34668,11 +34162,9 @@
         <v>-3701.346891809984</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>13650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34707,11 +34199,9 @@
         <v>-4414.846891809984</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>13670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34746,11 +34236,9 @@
         <v>-4414.846891809984</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>13650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34785,11 +34273,9 @@
         <v>-4076.846891809984</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>13650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34824,11 +34310,9 @@
         <v>-3816.804491809984</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>13660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34863,11 +34347,9 @@
         <v>-3520.146691809985</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>13680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34902,11 +34384,9 @@
         <v>-3520.146691809985</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>13690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
@@ -34941,11 +34421,9 @@
         <v>-3813.646691809985</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>13690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34980,11 +34458,9 @@
         <v>-3638.034891809984</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>13680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35019,11 +34495,9 @@
         <v>-3638.034891809984</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>13690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35243,11 +34717,9 @@
         <v>-3745.724191809984</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>13690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35282,11 +34754,9 @@
         <v>-4431.450391809984</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>13690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35321,11 +34791,9 @@
         <v>-5034.032691809984</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>13670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35360,11 +34828,9 @@
         <v>-4954.032691809984</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>13660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35436,11 +34902,9 @@
         <v>-4806.141091809985</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>13730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35475,11 +34939,9 @@
         <v>-4013.212991809984</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>13730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35514,11 +34976,9 @@
         <v>-1669.252691809984</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>13840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35812,11 +35272,9 @@
         <v>-2725.343591809984</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>13770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -37494,6 +36952,6 @@
       <c r="M1090" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BTG.xlsx
+++ b/BackTest/2020-01-19 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>5170.388910650003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5336.675810650003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5011.800510650003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5440.269510650004</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5069.461110650004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6185.885622000004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6577.483422000005</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6050.815122000005</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6149.615622000005</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6678.081983090005</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>7086.087883090005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5775.286683090005</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5324.467083090005</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>4414.170683090005</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>4776.325007790005</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>4517.598307790005</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>4567.661407790005</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>4509.150907790005</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>4487.333207790005</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3855.170407790004</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3909.011307790005</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3045.593007790005</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3057.518307790005</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3080.118307790005</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2386.650507790005</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2706.957707790005</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2733.204307790005</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1716.594407790005</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1821.088607790005</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1825.878407790005</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1786.402407790005</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1840.106207790005</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2033.203342390005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1891.175942390005</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1884.568242390005</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1775.218542390005</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1816.865442390005</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>668.870225440005</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>522.870225440005</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>1928.966244840005</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2510.818544840005</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>2630.292233720005</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>2630.091033720005</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2197.981133720005</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>2216.955633720005</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>2375.079833720005</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>2294.192233720005</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2319.081922530005</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2382.581422530005</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2244.646422530005</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>4638.005196670005</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>4688.184011990004</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>4539.687611720004</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>4976.943618800005</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>5375.292301170004</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>4672.548229070004</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>4531.740291350004</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>2624.293113030004</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>2624.203742410004</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>2394.135942410004</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>2481.541742410004</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>2363.500453800004</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>2556.960053800005</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>2330.276282000004</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>2425.010006980004</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>3396.462160160004</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>1215.791068750004</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>1889.635568750004</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>1546.726368750004</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>2053.349184760004</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>2134.538584760005</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>2879.660798560005</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>4036.166598560005</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>20170.49560537001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>21678.23780537001</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>21317.46640537001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>20874.57860537001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>20222.06710537001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>19349.56530537001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>19409.36377403001</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>19286.55143412001</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>18704.76143412001</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>19095.58273412001</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>19718.55462680001</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>19717.47562680001</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>19715.7952268</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>19715.67332680001</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>19742.83332680001</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>18510.98852680001</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>18701.86822680001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>18670.23822680001</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>18316.05642680001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>17374.76052680001</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>17132.44052680001</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>17538.27712680001</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>17130.72692680001</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>16401.07112680001</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>16050.91262680001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>16658.95772680001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>16720.67882680001</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>16709.69882680001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>16643.88742680001</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>16534.83932680001</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>16297.03312680001</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>16210.21082680001</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>17149.79612680001</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>17251.34962680001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>17039.09132680001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>17017.33072680001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>16503.16222680001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>20277.95772561001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>20176.12372561001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>20235.24392561002</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>20217.76972561001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>20229.42652561002</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>20184.84232135002</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>18027.74732135002</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -31669,11 +31669,17 @@
         <v>-7254.717635609984</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>13400</v>
+      </c>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31702,11 +31708,17 @@
         <v>-8069.749235609985</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>13380</v>
+      </c>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31743,7 +31755,7 @@
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L950" t="n">
@@ -31969,11 +31981,9 @@
         <v>-4183.050135609985</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>13550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32008,11 +32018,9 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
-      </c>
-      <c r="I957" t="n">
-        <v>13580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -32047,11 +32055,9 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
-        <v>13600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -32086,11 +32092,9 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
-      </c>
-      <c r="I959" t="n">
-        <v>13600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -32162,11 +32166,9 @@
         <v>-3274.390135609985</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>13610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -36952,6 +36954,6 @@
       <c r="M1090" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BTG.xlsx
+++ b/BackTest/2020-01-19 BackTest BTG.xlsx
@@ -550,7 +550,7 @@
         <v>5170.388910650003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5336.675810650003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5011.800510650003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>5440.269510650004</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5069.461110650004</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6185.885622000004</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6577.483422000005</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6050.815122000005</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6149.615622000005</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6678.081983090005</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>7086.087883090005</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5775.286683090005</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5324.467083090005</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>4414.170683090005</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>4776.325007790005</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>4517.598307790005</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>4567.661407790005</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>4509.150907790005</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>4487.333207790005</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3855.170407790004</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3909.011307790005</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3045.593007790005</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3057.518307790005</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3080.118307790005</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2386.650507790005</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2706.957707790005</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2733.204307790005</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1716.594407790005</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1821.088607790005</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1825.878407790005</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1786.402407790005</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1840.106207790005</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2033.203342390005</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1891.175942390005</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1884.568242390005</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1775.218542390005</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1816.865442390005</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>668.870225440005</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>522.870225440005</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>1928.966244840005</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2510.818544840005</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>2630.292233720005</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>2630.091033720005</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2197.981133720005</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>2216.955633720005</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>2375.079833720005</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>2294.192233720005</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2319.081922530005</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2382.581422530005</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2244.646422530005</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>4638.005196670005</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>4688.184011990004</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>4539.687611720004</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>4976.943618800005</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>5375.292301170004</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>4672.548229070004</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>4531.740291350004</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>2624.293113030004</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>2624.203742410004</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>2394.135942410004</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>2481.541742410004</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>2363.500453800004</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>2556.960053800005</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>2330.276282000004</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>2425.010006980004</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>3396.462160160004</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>1215.791068750004</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>1889.635568750004</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>1546.726368750004</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>2053.349184760004</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>2134.538584760005</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>2879.660798560005</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>4036.166598560005</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>24215.86569466001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>22648.13513498001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>23227.78944366001</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>22024.44634366001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>23089.36704366001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>24253.09814366001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>22198.09164366001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>22983.89464366001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>22095.89254366001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>21176.28174366001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>20691.60394366001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>21418.16577593001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>21344.69807593001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>21344.69807593001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>20244.80924065001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>20543.75170537001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>20170.49560537001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>21678.23780537001</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>21317.46640537001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>20874.57860537001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>20222.06710537001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>19349.56530537001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>19313.93090537001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>19130.76310537001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>18724.18290537001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>19409.36377403001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>20277.95772561001</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>20176.12372561001</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>20235.24392561002</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>20217.76972561001</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>20229.42652561002</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>20184.84232135002</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -31981,9 +31981,11 @@
         <v>-4183.050135609985</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>13550</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32018,9 +32020,11 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>13580</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -32055,9 +32059,11 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>13600</v>
+      </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -32092,9 +32098,11 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>13600</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -32129,9 +32137,11 @@
         <v>-3198.908835609985</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>13600</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33831,9 +33841,11 @@
         <v>-5370.093091809984</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>13500</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -33868,9 +33880,11 @@
         <v>-5278.229191809984</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>13500</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -33905,9 +33919,11 @@
         <v>-5247.932591809984</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>13600</v>
+      </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
@@ -33942,9 +33958,11 @@
         <v>-5430.932591809984</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>13680</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34016,9 +34034,11 @@
         <v>-4986.542491809984</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>13520</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34053,9 +34073,11 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>13520</v>
+      </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34090,9 +34112,11 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>13610</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34127,9 +34151,11 @@
         <v>-4385.831991809984</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>13610</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34164,9 +34190,11 @@
         <v>-3701.346891809984</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>13650</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
